--- a/spec/ConvSpec-050-088-v2.3.xlsx
+++ b/spec/ConvSpec-050-088-v2.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\share\BF 2.0 Bib specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\BF 2.0 Bib specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="171">
   <si>
     <t>050 - LIBRARY OF CONGRESS CALL NUMBER (R)</t>
   </si>
@@ -239,9 +239,6 @@
     <t>W - classification - ClassificationLcc</t>
   </si>
   <si>
-    <t>Item - shelfMark - ShelfMarkLcc</t>
-  </si>
-  <si>
     <t xml:space="preserve">     $a - Classification number (R)</t>
   </si>
   <si>
@@ -470,9 +467,6 @@
     <t># - in data but not in format</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>7 - Source specified in subfield $2</t>
   </si>
   <si>
@@ -500,21 +494,9 @@
     <t>## - source - Source - bf:code "content of $2"</t>
   </si>
   <si>
-    <t>## - assigner - Agent - http://id.loc.gov/vocabulary/organizations/dnal</t>
-  </si>
-  <si>
     <t>see $2</t>
   </si>
   <si>
-    <t>## - heldBy - Agent - http://id.loc.gov/vocabulary/organizations/dlc ; add bf:code "DLC"</t>
-  </si>
-  <si>
-    <t>## - shelfMark - ShelfMarkLcc - rdfs:label "content of first $a or first $ab concatenated" ; add ## - assigner - Agent - http://id.loc.gov/vocabulary/organizations/dlc  if Ind2=0</t>
-  </si>
-  <si>
-    <t>## -  rdfs:label "content of $ab concatenated"</t>
-  </si>
-  <si>
     <t>## - note - Note - rdfs:label "content of $c"</t>
   </si>
   <si>
@@ -533,20 +515,35 @@
     <t>## - source - Source - http://id.loc.gov/vocabulary/classSchemes/agricola</t>
   </si>
   <si>
-    <t>change to assigner - Agent?</t>
-  </si>
-  <si>
-    <t>Fields 050-088 - Class/call numbers, etc. - v2.0, 07/26/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">     $7 - Data provenance (R)</t>
+  </si>
+  <si>
+    <t>Item - classification - ClassificationLcc</t>
+  </si>
+  <si>
+    <t>Fields 050-088 - Class/call numbers, etc. - v2.3, 01/11/2023</t>
+  </si>
+  <si>
+    <t>## status - Status - http://id.loc.gov/vocabulary/mstatus/uba</t>
+  </si>
+  <si>
+    <t>## status - Status - http://id.loc.gov/vocabulary/mstatus/nuba</t>
+  </si>
+  <si>
+    <t>## - status - Status - http://id.loc.gov/vocabulary/mstatus/uba</t>
+  </si>
+  <si>
+    <t>## - status - Status - http://id.loc.gov/vocabulary/mstatus/nuba</t>
+  </si>
+  <si>
+    <t>## - assigner - Agent - http://id.loc.gov/vocabulary/organizations/dnal AND ## - status - Status - http://id.loc.gov/vocabulary/mstatus/uba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -619,19 +616,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -693,7 +692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -986,7 +985,7 @@
   <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186:B186"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -994,13 +993,13 @@
     <col min="1" max="1" width="37.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>66</v>
@@ -1008,7 +1007,7 @@
       <c r="C1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1022,10 +1021,8 @@
       <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1043,33 +1040,27 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="B8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -1082,21 +1073,16 @@
         <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>138</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,49 +1090,45 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>69</v>
@@ -1154,7 +1136,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>69</v>
@@ -1169,39 +1151,40 @@
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>72</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1214,9 +1197,9 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -1233,23 +1216,23 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,28 +1242,27 @@
     </row>
     <row r="33" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>160</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>69</v>
@@ -1291,7 +1273,7 @@
     </row>
     <row r="36" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>69</v>
@@ -1299,30 +1281,33 @@
       <c r="C36" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1334,8 +1319,9 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -1346,24 +1332,27 @@
       <c r="A43" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="B45" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1376,35 +1365,32 @@
         <v>35</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C48" s="8"/>
-      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>152</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>152</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1412,7 +1398,7 @@
         <v>39</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1420,7 +1406,7 @@
         <v>40</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1428,7 +1414,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1436,7 +1422,7 @@
         <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1444,7 +1430,7 @@
         <v>43</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -1452,7 +1438,7 @@
         <v>44</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1462,7 +1448,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>64</v>
@@ -1471,7 +1457,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>65</v>
@@ -1479,31 +1465,33 @@
     </row>
     <row r="61" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>69</v>
@@ -1519,8 +1507,9 @@
         <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
@@ -1531,24 +1520,26 @@
       <c r="A68" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>47</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,7 +1552,7 @@
         <v>48</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,7 +1560,7 @@
         <v>49</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,7 +1570,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>64</v>
@@ -1587,7 +1578,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>65</v>
@@ -1595,59 +1586,61 @@
     </row>
     <row r="78" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>6</v>
       </c>
@@ -1655,64 +1648,63 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>69</v>
+      <c r="B97" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,7 +1714,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>64</v>
@@ -1730,7 +1722,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>65</v>
@@ -1738,19 +1730,21 @@
     </row>
     <row r="101" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
@@ -1762,7 +1756,7 @@
         <v>8</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,17 +1766,17 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,9 +1789,8 @@
         <v>9</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D110" s="3"/>
+        <v>138</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
@@ -1806,122 +1799,123 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
+      <c r="B117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="B118" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="C124" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>21</v>
       </c>
@@ -1943,37 +1937,39 @@
     </row>
     <row r="132" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D136" s="1"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,9 +1982,8 @@
         <v>12</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D140" s="1"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
@@ -2002,7 +1997,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>69</v>
@@ -2013,7 +2008,7 @@
         <v>58</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,13 +2016,12 @@
         <v>59</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D145" s="1"/>
+        <v>143</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>69</v>
@@ -2051,7 +2045,7 @@
         <v>26</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" s="3"/>
     </row>
@@ -2070,15 +2064,15 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>65</v>
@@ -2086,46 +2080,45 @@
     </row>
     <row r="154" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D155" s="1"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D158" s="1"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -2137,89 +2130,88 @@
         <v>13</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="7" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>18</v>
       </c>
@@ -2229,9 +2221,8 @@
         <v>14</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D177" s="3"/>
+        <v>122</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
@@ -2240,7 +2231,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>64</v>
@@ -2248,7 +2239,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>65</v>
@@ -2256,25 +2247,24 @@
     </row>
     <row r="181" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D181" s="1"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="182" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>69</v>
@@ -2283,41 +2273,41 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D184" s="1"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="185" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D186" s="1"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D187" s="1"/>
     </row>
     <row r="188" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -2327,114 +2317,116 @@
     </row>
     <row r="190" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="7" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="7" t="s">
+    <row r="195" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="7" t="s">
+    <row r="196" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="7" t="s">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="7" t="s">
+    <row r="198" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
+    <row r="199" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2442,13 +2434,10 @@
         <v>62</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
@@ -2456,10 +2445,10 @@
         <v>63</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,51 +2458,52 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="D215" s="1"/>
     </row>
     <row r="216" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D216" s="1"/>
     </row>
     <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D217" s="3"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="218" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>69</v>
@@ -2521,6 +2511,7 @@
       <c r="C218" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D218" s="1"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
@@ -2532,10 +2523,10 @@
         <v>17</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,23 +2536,23 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>69</v>
